--- a/data/inbound/dataList.xlsx
+++ b/data/inbound/dataList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_master\pycharmWork\data\inbound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A131F2-69C2-450D-AD4A-71891BFD3191}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50247C54-E4EA-4242-924E-37719889E72C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B12F32B9-7BBC-4AE0-B528-90EE382DC974}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="61">
   <si>
     <t>번호</t>
   </si>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_자료5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료5_서비스1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8947A2D0-7A31-4716-9562-E236DFD43BA6}">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1177,6 +1189,57 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:23" ht="27.6" x14ac:dyDescent="0.35">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
